--- a/2023/06-polanka/06-VKCT2023-Polanka.xlsx
+++ b/2023/06-polanka/06-VKCT2023-Polanka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Frýdl Matěj</t>
   </si>
   <si>
-    <t xml:space="preserve">Hříbková Anna</t>
+    <t xml:space="preserve">Hřibková Anna</t>
   </si>
   <si>
     <t xml:space="preserve">Zemánek Adrian</t>
@@ -528,6 +528,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1209,7 +1210,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5022,8 +5023,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
